--- a/Value/Lockheed Martin.xlsx
+++ b/Value/Lockheed Martin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE0B343-B0B3-6442-9641-4CA9E68F7B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E16D8F4-4B1E-F441-8C32-80F14F78E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>Lockheed Martin</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -958,7 +961,6 @@
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -972,6 +974,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -984,10 +992,10 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2600,10 +2608,10 @@
   <dimension ref="A1:AO118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH88" sqref="AH88"/>
+      <selection pane="bottomRight" activeCell="AL23" sqref="AL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4472,7 +4480,7 @@
         <v>19.811317677756033</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4570,7 +4578,7 @@
         <v>623000000</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4667,8 +4675,11 @@
       <c r="AF18" s="1">
         <v>1404000000</v>
       </c>
+      <c r="AL18" s="18" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4765,8 +4776,12 @@
       <c r="AF19" s="10">
         <v>8707000000</v>
       </c>
+      <c r="AL19" s="68">
+        <f>AF40-AF56-AF61</f>
+        <v>-12882000000</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -4892,7 +4907,7 @@
         <v>-8.1830644310872058E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4990,7 +5005,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5091,7 +5106,7 @@
         <v>7300000000</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5189,7 +5204,7 @@
         <v>0.1265</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5287,7 +5302,7 @@
         <v>-1668000000</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5385,7 +5400,7 @@
         <v>6680000000</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5483,7 +5498,7 @@
         <v>0.1012</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5581,7 +5596,7 @@
         <v>948000000</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5679,7 +5694,7 @@
         <v>5732000000</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -5805,7 +5820,7 @@
         <v>-9.2319873317498025E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5903,7 +5918,7 @@
         <v>8.6900000000000005E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6001,7 +6016,7 @@
         <v>20.74</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6098,7 +6113,7 @@
       <c r="AF32" s="12">
         <v>20.66</v>
       </c>
-      <c r="AG32" s="61">
+      <c r="AG32" s="60">
         <v>26.75</v>
       </c>
     </row>
@@ -11158,10 +11173,10 @@
       <c r="AF83" s="1">
         <v>-107000000</v>
       </c>
-      <c r="AM83" s="62" t="s">
+      <c r="AM83" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="AN83" s="63"/>
+      <c r="AN83" s="64"/>
     </row>
     <row r="84" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11260,10 +11275,10 @@
       <c r="AF84" s="1">
         <v>1274000000</v>
       </c>
-      <c r="AM84" s="64" t="s">
+      <c r="AM84" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="AN84" s="65"/>
+      <c r="AN84" s="66"/>
     </row>
     <row r="85" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12233,10 +12248,10 @@
       <c r="AF93" s="1">
         <v>-1789000000</v>
       </c>
-      <c r="AM93" s="64" t="s">
+      <c r="AM93" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="AN93" s="65"/>
+      <c r="AN93" s="66"/>
     </row>
     <row r="94" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12752,10 +12767,10 @@
       <c r="AF98" s="1">
         <v>-3016000000</v>
       </c>
-      <c r="AM98" s="64" t="s">
+      <c r="AM98" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="AN98" s="65"/>
+      <c r="AN98" s="66"/>
     </row>
     <row r="99" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -13378,10 +13393,10 @@
       <c r="AF104" s="11">
         <v>2547000000</v>
       </c>
-      <c r="AM104" s="64" t="s">
+      <c r="AM104" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="AN104" s="65"/>
+      <c r="AN104" s="66"/>
     </row>
     <row r="105" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -13734,10 +13749,10 @@
       </c>
     </row>
     <row r="109" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG109" s="66" t="s">
+      <c r="AG109" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="AH109" s="67"/>
+      <c r="AH109" s="62"/>
     </row>
     <row r="110" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AG110" s="51" t="s">
@@ -13776,47 +13791,47 @@
       </c>
     </row>
     <row r="114" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG114" s="53" t="s">
+      <c r="AG114" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AH114" s="54">
-        <f>AF34</f>
-        <v>277400000</v>
+      <c r="AH114" s="67">
+        <f>AF34*(1+(5*AL16))</f>
+        <v>264580918.94763336</v>
       </c>
     </row>
     <row r="115" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG115" s="55" t="s">
+      <c r="AG115" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="AH115" s="56">
+      <c r="AH115" s="55">
         <f>AH113/AH114</f>
-        <v>470.08345468329355</v>
+        <v>492.8592388590011</v>
       </c>
     </row>
     <row r="116" spans="33:34" ht="20" x14ac:dyDescent="0.25">
       <c r="AG116" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="AH116" s="57">
+      <c r="AH116" s="56">
         <v>475.8</v>
       </c>
     </row>
     <row r="117" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG117" s="58" t="s">
+      <c r="AG117" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="AH117" s="59">
+      <c r="AH117" s="58">
         <f>AH115/AH116-1</f>
-        <v>-1.2014597134734073E-2</v>
+        <v>3.5853801721313694E-2</v>
       </c>
     </row>
     <row r="118" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG118" s="58" t="s">
+      <c r="AG118" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="AH118" s="60" t="str">
+      <c r="AH118" s="59" t="str">
         <f>IF(AH115&gt;AH116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
